--- a/templete.xlsx
+++ b/templete.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ooyamayoshito/WorkSpace/excel-job/excel_job/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\member\git\excel_job\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30B1595-2F1D-074B-965E-1A7ED4F1153C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5354E256-E71A-4CD5-A7BD-C32D16D94BDA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23920" windowHeight="15120" tabRatio="855" xr2:uid="{5213F3F9-B15D-48BC-B211-74FB0F676197}"/>
+    <workbookView xWindow="1380" yWindow="1590" windowWidth="19845" windowHeight="13590" tabRatio="855" xr2:uid="{5213F3F9-B15D-48BC-B211-74FB0F676197}"/>
   </bookViews>
   <sheets>
     <sheet name="templete" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>プログラミング得意度</t>
     <rPh sb="9" eb="10">
@@ -459,16 +459,6 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>ヘイキン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>2年後期終了時</t>
-    <rPh sb="0" eb="1">
-      <t>アt</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ネンゼンキシュウリョウジ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -480,7 +470,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,7 +562,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -632,6 +622,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -639,7 +651,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -676,21 +688,12 @@
     <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -699,6 +702,21 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1021,31 +1039,31 @@
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15:M15"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="9" width="9.33203125" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" customWidth="1"/>
+    <col min="2" max="9" width="9.375" customWidth="1"/>
+    <col min="10" max="10" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25" thickBot="1">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:10" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="19"/>
-    </row>
-    <row r="2" spans="1:10" ht="21" customHeight="1">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="16"/>
+    </row>
+    <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1059,7 +1077,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10" ht="16.5" customHeight="1">
+    <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1071,10 +1089,10 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10">
-      <c r="B4" s="15"/>
-    </row>
-    <row r="6" spans="1:10" ht="30">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B4" s="13"/>
+    </row>
+    <row r="6" spans="1:10" ht="24" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="1" t="s">
         <v>0</v>
@@ -1101,7 +1119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
@@ -1114,7 +1132,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
@@ -1127,120 +1145,118 @@
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="7" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-    </row>
-    <row r="12" spans="1:10" ht="12" customHeight="1"/>
-    <row r="13" spans="1:10" ht="12" customHeight="1"/>
-    <row r="30" spans="1:1" ht="8.25" customHeight="1"/>
-    <row r="31" spans="1:1">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+    </row>
+    <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:1" ht="8.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" s="5"/>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" s="5"/>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A44" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A45" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A46" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A47" s="5" t="s">
         <v>25</v>
       </c>

--- a/templete.xlsx
+++ b/templete.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\member\git\excel_job\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5354E256-E71A-4CD5-A7BD-C32D16D94BDA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E35BF39-2A3F-4B80-ABBD-5ACB74CFD0A7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="1590" windowWidth="19845" windowHeight="13590" tabRatio="855" xr2:uid="{5213F3F9-B15D-48BC-B211-74FB0F676197}"/>
+    <workbookView xWindow="1170" yWindow="0" windowWidth="23415" windowHeight="15600" tabRatio="855" xr2:uid="{5213F3F9-B15D-48BC-B211-74FB0F676197}"/>
   </bookViews>
   <sheets>
     <sheet name="templete" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="28">
   <si>
     <t>プログラミング得意度</t>
     <rPh sb="9" eb="10">
@@ -551,13 +551,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFE5FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,21 +679,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -703,20 +703,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -725,6 +725,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFE5FF"/>
+      <color rgb="FFFFCCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1039,7 +1045,7 @@
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1090,7 +1096,7 @@
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B4" s="13"/>
+      <c r="B4" s="9"/>
     </row>
     <row r="6" spans="1:10" ht="24" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
@@ -1123,64 +1129,64 @@
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/templete.xlsx
+++ b/templete.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\member\git\excel_job\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5354E256-E71A-4CD5-A7BD-C32D16D94BDA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B89FB7-32E8-4294-A3CA-8795842E691A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="1590" windowWidth="19845" windowHeight="13590" tabRatio="855" xr2:uid="{5213F3F9-B15D-48BC-B211-74FB0F676197}"/>
+    <workbookView xWindow="1170" yWindow="0" windowWidth="23415" windowHeight="15600" tabRatio="855" xr2:uid="{5213F3F9-B15D-48BC-B211-74FB0F676197}"/>
   </bookViews>
   <sheets>
     <sheet name="templete" sheetId="3" r:id="rId1"/>
@@ -691,8 +691,20 @@
     <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -703,20 +715,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1039,7 +1039,7 @@
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1050,18 +1050,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
@@ -1090,7 +1090,8 @@
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B4" s="13"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
     </row>
     <row r="6" spans="1:10" ht="24" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
@@ -1159,28 +1160,28 @@
       <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1262,8 +1263,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.51181102362204722" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/templete.xlsx
+++ b/templete.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\member\git\excel_job\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B89FB7-32E8-4294-A3CA-8795842E691A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606A0FC1-5982-41A6-ACA9-23D196B6D683}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="0" windowWidth="23415" windowHeight="15600" tabRatio="855" xr2:uid="{5213F3F9-B15D-48BC-B211-74FB0F676197}"/>
+    <workbookView xWindow="1950" yWindow="0" windowWidth="23415" windowHeight="15600" tabRatio="855" xr2:uid="{5213F3F9-B15D-48BC-B211-74FB0F676197}"/>
   </bookViews>
   <sheets>
     <sheet name="templete" sheetId="3" r:id="rId1"/>
@@ -1039,14 +1039,14 @@
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A2" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
     <col min="2" max="9" width="9.375" customWidth="1"/>
-    <col min="10" max="10" width="7.625" customWidth="1"/>
+    <col min="10" max="10" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
